--- a/results/I3_N5_M2_T15_C150_DepCentral_s1_P5_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s1_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1630.355728880679</v>
+        <v>335.9596863901649</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.445908584740821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.741951075243185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1341.740000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>267.36</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -947,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>13.91429431698742</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.78831096928433</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,146 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>282.4850000000012</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>278.9800000000012</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>288.9400000000012</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>286.9250000000011</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>283.5400000000012</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>128.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>128.3249999999988</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7649999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>126.9849999999988</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.05499999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>83.09999999999999</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>76.23999999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>77.71999999999912</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>155.5150000000009</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>151.3300000000009</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>152.0850000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>159.6700000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>160.0600000000009</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000035</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000035</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>282.4850000000012</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>278.9800000000012</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>288.9400000000012</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>286.9250000000011</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>283.5400000000012</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>128.1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>128.3249999999988</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>114.65</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>127.7649999999988</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>126.9849999999988</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>132.4850000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>128.9800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>138.9400000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>136.9250000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>133.5400000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,116 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
